--- a/AH - StructuurObjectenlijst.xlsx
+++ b/AH - StructuurObjectenlijst.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAABA775-9138-4171-9708-2FC6BA6F0398}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A07B646-1223-41DB-8271-DC8854B45FB2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Groeperen" sheetId="1" r:id="rId1"/>
+    <sheet name="Groepen" sheetId="1" r:id="rId1"/>
     <sheet name="Irrelevant" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD37295-B604-4CF3-8132-22E340E56A9C}">
   <dimension ref="A1:B542"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/AH - StructuurObjectenlijst.xlsx
+++ b/AH - StructuurObjectenlijst.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="159" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5DC4FAD-F8D8-4FAA-9ECF-505DA8368A6E}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89D48B81-91DE-4644-BAE0-835FC8D444B8}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Classificatie" sheetId="5" r:id="rId1"/>
+    <sheet name="Classificaties" sheetId="5" r:id="rId1"/>
     <sheet name="Groepen" sheetId="1" r:id="rId2"/>
     <sheet name="Irrelevant" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -7654,7 +7654,7 @@
   <dimension ref="A1:D1441"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AH - StructuurObjectenlijst.xlsx
+++ b/AH - StructuurObjectenlijst.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2EF236A-7BC3-4A34-A85B-1295C37F7E7F}"/>
+  <xr:revisionPtr revIDLastSave="187" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E85BA0B-CB24-4A0C-B2B7-C26522FB3467}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Classificaties" sheetId="5" r:id="rId1"/>
     <sheet name="Groepen" sheetId="1" r:id="rId2"/>
     <sheet name="Irrelevant" sheetId="3" r:id="rId3"/>
+    <sheet name="Aanvullende gegevens" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5939" uniqueCount="2415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5951" uniqueCount="2421">
   <si>
     <t>Classificatiecode</t>
   </si>
@@ -7283,6 +7284,24 @@
   </si>
   <si>
     <t>dd75fe35-7ca3-4f23-8261-2e85568d5638</t>
+  </si>
+  <si>
+    <t>dsa adsa</t>
+  </si>
+  <si>
+    <t>sdasda</t>
+  </si>
+  <si>
+    <t>sdads</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -27857,7 +27876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2BAA42-1CE5-49F8-8522-6E9CF5F65079}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -30040,4 +30059,76 @@
     <ignoredError sqref="A1 A543:A1048576 A3 A5:A14 A15:A35 A36:A60" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AE1DDA-991F-40D9-AD70-E576DA190F30}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="B2:P16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>2420</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2418</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>2419</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AH - StructuurObjectenlijst.xlsx
+++ b/AH - StructuurObjectenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E85BA0B-CB24-4A0C-B2B7-C26522FB3467}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFACE607-ADA5-43D9-BD21-C4990E8BF8D0}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Classificaties" sheetId="5" r:id="rId1"/>
     <sheet name="Groepen" sheetId="1" r:id="rId2"/>
     <sheet name="Irrelevant" sheetId="3" r:id="rId3"/>
-    <sheet name="Aanvullende gegevens" sheetId="6" r:id="rId4"/>
+    <sheet name="IN TE VULLEN" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30069,7 +30069,7 @@
   <dimension ref="B2:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AH - StructuurObjectenlijst.xlsx
+++ b/AH - StructuurObjectenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFACE607-ADA5-43D9-BD21-C4990E8BF8D0}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024CE8FD-4679-4DD3-A50C-CCB0BA87F2A9}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5951" uniqueCount="2421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5955" uniqueCount="2431">
   <si>
     <t>Classificatiecode</t>
   </si>
@@ -7286,22 +7286,52 @@
     <t>dd75fe35-7ca3-4f23-8261-2e85568d5638</t>
   </si>
   <si>
-    <t>dsa adsa</t>
-  </si>
-  <si>
-    <t>sdasda</t>
-  </si>
-  <si>
-    <t>sdads</t>
-  </si>
-  <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>sda</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>Brandmeldinstallatie</t>
+  </si>
+  <si>
+    <t>Sprinklerinstallatie</t>
+  </si>
+  <si>
+    <t>Rolluik entree</t>
+  </si>
+  <si>
+    <t>Rolluik fireshield</t>
+  </si>
+  <si>
+    <t>Schuifdeur entree</t>
+  </si>
+  <si>
+    <t>Inbraakbeveiliging</t>
+  </si>
+  <si>
+    <t>Video bewakingssyteem</t>
+  </si>
+  <si>
+    <t>Telefooninstallatie</t>
+  </si>
+  <si>
+    <t>Onderdeel</t>
+  </si>
+  <si>
+    <t>Toelichting:</t>
+  </si>
+  <si>
+    <t>Aanvullend op de gegenereerde objectenlijst dienen onderstaande gegevens ingevuld te worden.</t>
+  </si>
+  <si>
+    <t>Aanwezig</t>
+  </si>
+  <si>
+    <t>Stand alone</t>
+  </si>
+  <si>
+    <t>Invulwaarden</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nee</t>
   </si>
 </sst>
 </file>
@@ -7360,6 +7390,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}" name="Tabel1" displayName="Tabel1" ref="A4:C12" totalsRowShown="0">
+  <autoFilter ref="A4:C12" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E033E219-B34F-445C-BCB7-322EA660DF89}" name="Onderdeel"/>
+    <tableColumn id="2" xr3:uid="{2F475C3E-D188-4431-81D9-8A8B1C8C3E9E}" name="Aanwezig"/>
+    <tableColumn id="3" xr3:uid="{813526EB-B0B5-4E72-8E5D-94E8417D5948}" name="Stand alone"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30066,69 +30108,101 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:P16"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2425</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2426</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2415</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>2417</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E4" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2418</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2419</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2420</v>
       </c>
-      <c r="H9" t="s">
-        <v>2418</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2418</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="K12" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="O13" t="s">
-        <v>2419</v>
-      </c>
-      <c r="P13" t="s">
-        <v>2419</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>2416</v>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2422</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C12" xr:uid="{676C343F-C77A-4EDD-9C30-8385A79BC4B9}">
+      <formula1>$Q$2:$Q$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/AH - StructuurObjectenlijst.xlsx
+++ b/AH - StructuurObjectenlijst.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024CE8FD-4679-4DD3-A50C-CCB0BA87F2A9}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3871B8A0-0ADA-4CAF-B736-A93526F47C1A}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
@@ -7338,10 +7338,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -7367,7 +7374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7375,11 +7382,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -7393,7 +7416,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}" name="Tabel1" displayName="Tabel1" ref="A4:C12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}" name="Tabel1" displayName="Tabel1" ref="A4:C12" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A4:C12" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E033E219-B34F-445C-BCB7-322EA660DF89}" name="Onderdeel"/>
@@ -30111,7 +30134,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30119,7 +30142,7 @@
     <col min="1" max="1" width="39.7109375" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -30144,13 +30167,13 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2423</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2426</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2427</v>
       </c>
     </row>
@@ -30196,7 +30219,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C12" xr:uid="{676C343F-C77A-4EDD-9C30-8385A79BC4B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B12 C5:C12" xr:uid="{676C343F-C77A-4EDD-9C30-8385A79BC4B9}">
       <formula1>$Q$2:$Q$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/AH - StructuurObjectenlijst.xlsx
+++ b/AH - StructuurObjectenlijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3871B8A0-0ADA-4CAF-B736-A93526F47C1A}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E05C62F-6B84-44E5-B50D-50D791717DB6}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Classificaties" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5955" uniqueCount="2431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5964" uniqueCount="2440">
   <si>
     <t>Classificatiecode</t>
   </si>
@@ -7310,9 +7310,6 @@
     <t>Telefooninstallatie</t>
   </si>
   <si>
-    <t>Onderdeel</t>
-  </si>
-  <si>
     <t>Toelichting:</t>
   </si>
   <si>
@@ -7332,6 +7329,36 @@
   </si>
   <si>
     <t>Nee</t>
+  </si>
+  <si>
+    <t>ffa5971f-e35e-4b5d-a6c2-64c93f55a37c</t>
+  </si>
+  <si>
+    <t>8c9f2dbf-2b0a-4c54-af8b-7c444c3887c1</t>
+  </si>
+  <si>
+    <t>7d4d8f20-c361-4f35-8d7d-cb329da08069</t>
+  </si>
+  <si>
+    <t>51b7bf33-86c7-4154-99f9-af10d93e12c1</t>
+  </si>
+  <si>
+    <t>dc89402d-c691-49cf-b2f8-d3b7993bcf40</t>
+  </si>
+  <si>
+    <t>c1f07575-869a-455e-81ac-222ab41d203b</t>
+  </si>
+  <si>
+    <t>9537fdc5-9fdd-4e4a-aebf-79fbea3bbb96</t>
+  </si>
+  <si>
+    <t>5ae65334-ceb5-4a7b-b29a-63a28af1b872</t>
+  </si>
+  <si>
+    <t>UUID (niet aanpassen)</t>
+  </si>
+  <si>
+    <t>Onderdeel (niet aanpassen)</t>
   </si>
 </sst>
 </file>
@@ -7374,7 +7401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7383,11 +7410,43 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -7416,12 +7475,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}" name="Tabel1" displayName="Tabel1" ref="A4:C12" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A4:C12" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E033E219-B34F-445C-BCB7-322EA660DF89}" name="Onderdeel"/>
-    <tableColumn id="2" xr3:uid="{2F475C3E-D188-4431-81D9-8A8B1C8C3E9E}" name="Aanwezig"/>
-    <tableColumn id="3" xr3:uid="{813526EB-B0B5-4E72-8E5D-94E8417D5948}" name="Stand alone"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}" name="Tabel1" displayName="Tabel1" ref="A4:D12" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A4:D12" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E033E219-B34F-445C-BCB7-322EA660DF89}" name="UUID (niet aanpassen)"/>
+    <tableColumn id="4" xr3:uid="{A4648D49-5556-4B29-98BB-475E0AC84D6B}" name="Onderdeel (niet aanpassen)"/>
+    <tableColumn id="2" xr3:uid="{2F475C3E-D188-4431-81D9-8A8B1C8C3E9E}" name="Aanwezig" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{813526EB-B0B5-4E72-8E5D-94E8417D5948}" name="Stand alone" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -30131,96 +30191,131 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="1" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2423</v>
+      </c>
+      <c r="B1" t="s">
         <v>2424</v>
       </c>
-      <c r="B1" t="s">
+      <c r="R1" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2438</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="Q1" t="s">
-        <v>2428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q2" t="s">
-        <v>2429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="Q3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>2430</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2423</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2426</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>2415</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>2431</v>
+      </c>
+      <c r="B6" t="s">
         <v>2416</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>2432</v>
+      </c>
+      <c r="B7" t="s">
         <v>2417</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>2433</v>
+      </c>
+      <c r="B8" t="s">
         <v>2418</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>2434</v>
+      </c>
+      <c r="B9" t="s">
         <v>2419</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>2435</v>
+      </c>
+      <c r="B10" t="s">
         <v>2420</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>2436</v>
+      </c>
+      <c r="B11" t="s">
         <v>2421</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>2437</v>
+      </c>
+      <c r="B12" t="s">
         <v>2422</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$R$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>$R$3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B12 C5:C12" xr:uid="{676C343F-C77A-4EDD-9C30-8385A79BC4B9}">
-      <formula1>$Q$2:$Q$3</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:D12" xr:uid="{676C343F-C77A-4EDD-9C30-8385A79BC4B9}">
+      <formula1>$R$2:$R$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AH - StructuurObjectenlijst.xlsx
+++ b/AH - StructuurObjectenlijst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bureaubased-my.sharepoint.com/personal/arjen_based_co_nl/Documents/Bureaublad/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E05C62F-6B84-44E5-B50D-50D791717DB6}"/>
+  <xr:revisionPtr revIDLastSave="265" documentId="8_{F829011C-A39F-4742-A6BB-1D17920FE097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80CCF897-ADBB-4C1F-8C84-08389842D5B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
+    <workbookView xWindow="-28920" yWindow="90" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{04321AF9-8E38-43D1-92D6-83215EBA8C31}"/>
   </bookViews>
   <sheets>
     <sheet name="Classificaties" sheetId="5" r:id="rId1"/>
@@ -7420,13 +7420,7 @@
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color theme="6"/>
@@ -7446,6 +7440,32 @@
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -7475,13 +7495,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}" name="Tabel1" displayName="Tabel1" ref="A4:D12" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}" name="Tabel1" displayName="Tabel1" ref="A4:D12" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A4:D12" xr:uid="{E09CF74A-AFE3-43A6-9F01-C645A8C3BC71}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E033E219-B34F-445C-BCB7-322EA660DF89}" name="UUID (niet aanpassen)"/>
     <tableColumn id="4" xr3:uid="{A4648D49-5556-4B29-98BB-475E0AC84D6B}" name="Onderdeel (niet aanpassen)"/>
-    <tableColumn id="2" xr3:uid="{2F475C3E-D188-4431-81D9-8A8B1C8C3E9E}" name="Aanwezig" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{813526EB-B0B5-4E72-8E5D-94E8417D5948}" name="Stand alone" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2F475C3E-D188-4431-81D9-8A8B1C8C3E9E}" name="Aanwezig" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{813526EB-B0B5-4E72-8E5D-94E8417D5948}" name="Stand alone" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -30194,7 +30214,7 @@
   <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30306,11 +30326,11 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>$R$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>$R$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>$R$3</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
